--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H2">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N2">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q2">
-        <v>4.932062296554999</v>
+        <v>2.137389568932444</v>
       </c>
       <c r="R2">
-        <v>44.38856066899499</v>
+        <v>19.236506120392</v>
       </c>
       <c r="S2">
-        <v>0.09732082209926186</v>
+        <v>0.06867080175371905</v>
       </c>
       <c r="T2">
-        <v>0.09732082209926186</v>
+        <v>0.06867080175371905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H3">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.734297</v>
       </c>
       <c r="O3">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P3">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q3">
-        <v>21.88604007603299</v>
+        <v>6.547725567254665</v>
       </c>
       <c r="R3">
-        <v>196.974360684297</v>
+        <v>58.92953010529198</v>
       </c>
       <c r="S3">
-        <v>0.4318614171164639</v>
+        <v>0.2103676236200974</v>
       </c>
       <c r="T3">
-        <v>0.4318614171164638</v>
+        <v>0.2103676236200974</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H4">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N4">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q4">
-        <v>10.471892937342</v>
+        <v>3.505063261885777</v>
       </c>
       <c r="R4">
-        <v>94.24703643607801</v>
+        <v>31.545569356972</v>
       </c>
       <c r="S4">
-        <v>0.2066342978492857</v>
+        <v>0.1126119018684186</v>
       </c>
       <c r="T4">
-        <v>0.2066342978492857</v>
+        <v>0.1126119018684187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H5">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N5">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O5">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P5">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q5">
-        <v>1.320557821965</v>
+        <v>0.8537426958133332</v>
       </c>
       <c r="R5">
-        <v>11.885020397685</v>
+        <v>7.683684262319998</v>
       </c>
       <c r="S5">
-        <v>0.02605761345573697</v>
+        <v>0.02742934477881139</v>
       </c>
       <c r="T5">
-        <v>0.02605761345573696</v>
+        <v>0.02742934477881139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.711597</v>
       </c>
       <c r="I6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N6">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q6">
-        <v>0.9975927316683332</v>
+        <v>1.445057504792667</v>
       </c>
       <c r="R6">
-        <v>8.978334585014998</v>
+        <v>13.005517543134</v>
       </c>
       <c r="S6">
-        <v>0.01968477665702329</v>
+        <v>0.0464273143636164</v>
       </c>
       <c r="T6">
-        <v>0.01968477665702329</v>
+        <v>0.0464273143636164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.711597</v>
       </c>
       <c r="I7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.734297</v>
       </c>
       <c r="O7">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P7">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q7">
         <v>4.426820504700999</v>
@@ -883,10 +883,10 @@
         <v>39.84138454230899</v>
       </c>
       <c r="S7">
-        <v>0.08735125083563842</v>
+        <v>0.1422264418692075</v>
       </c>
       <c r="T7">
-        <v>0.0873512508356384</v>
+        <v>0.1422264418692075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.711597</v>
       </c>
       <c r="I8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N8">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q8">
-        <v>2.118116855174</v>
+        <v>2.369721479407667</v>
       </c>
       <c r="R8">
-        <v>19.063051696566</v>
+        <v>21.327493314669</v>
       </c>
       <c r="S8">
-        <v>0.04179526965663463</v>
+        <v>0.0761352428631961</v>
       </c>
       <c r="T8">
-        <v>0.04179526965663462</v>
+        <v>0.07613524286319612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>3.711597</v>
       </c>
       <c r="I9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N9">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O9">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P9">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q9">
-        <v>0.267105078105</v>
+        <v>0.5772028214599999</v>
       </c>
       <c r="R9">
-        <v>2.403945702945</v>
+        <v>5.194825393139999</v>
       </c>
       <c r="S9">
-        <v>0.005270591534543947</v>
+        <v>0.01854457470004605</v>
       </c>
       <c r="T9">
-        <v>0.005270591534543945</v>
+        <v>0.01854457470004605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H10">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I10">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J10">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N10">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q10">
-        <v>0.04139249855388889</v>
+        <v>0.1787790957977778</v>
       </c>
       <c r="R10">
-        <v>0.372532486985</v>
+        <v>1.60901186218</v>
       </c>
       <c r="S10">
-        <v>0.0008167682696994201</v>
+        <v>0.005743877496029071</v>
       </c>
       <c r="T10">
-        <v>0.00081676826969942</v>
+        <v>0.005743877496029071</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H11">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I11">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J11">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.734297</v>
       </c>
       <c r="O11">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P11">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q11">
-        <v>0.1836793267656666</v>
+        <v>0.5476757599366666</v>
       </c>
       <c r="R11">
-        <v>1.653113940891</v>
+        <v>4.929081839429999</v>
       </c>
       <c r="S11">
-        <v>0.003624411454810645</v>
+        <v>0.01759591891089507</v>
       </c>
       <c r="T11">
-        <v>0.003624411454810644</v>
+        <v>0.01759591891089507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H12">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I12">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J12">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N12">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q12">
-        <v>0.08788571335933335</v>
+        <v>0.2931763351811111</v>
       </c>
       <c r="R12">
-        <v>0.790971420234</v>
+        <v>2.63858701663</v>
       </c>
       <c r="S12">
-        <v>0.001734185288147044</v>
+        <v>0.009419272127429519</v>
       </c>
       <c r="T12">
-        <v>0.001734185288147044</v>
+        <v>0.009419272127429521</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1530633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.45919</v>
+      </c>
+      <c r="I13">
+        <v>0.03505335944376924</v>
+      </c>
+      <c r="J13">
+        <v>0.03505335944376924</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.05133433333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.154003</v>
-      </c>
-      <c r="I13">
-        <v>0.006394054409187597</v>
-      </c>
-      <c r="J13">
-        <v>0.006394054409187596</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N13">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O13">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P13">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q13">
-        <v>0.011082825895</v>
+        <v>0.07141016753333332</v>
       </c>
       <c r="R13">
-        <v>0.09974543305500001</v>
+        <v>0.6426915078</v>
       </c>
       <c r="S13">
-        <v>0.0002186893965304885</v>
+        <v>0.002294290909415582</v>
       </c>
       <c r="T13">
-        <v>0.0002186893965304885</v>
+        <v>0.002294290909415582</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H14">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I14">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J14">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N14">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q14">
-        <v>0.5025443298094444</v>
+        <v>1.338972460071111</v>
       </c>
       <c r="R14">
-        <v>4.522898968285</v>
+        <v>12.05075214064</v>
       </c>
       <c r="S14">
-        <v>0.009916344193896242</v>
+        <v>0.04301897683778719</v>
       </c>
       <c r="T14">
-        <v>0.00991634419389624</v>
+        <v>0.04301897683778719</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H15">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I15">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J15">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.734297</v>
       </c>
       <c r="O15">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P15">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q15">
-        <v>2.230041852852333</v>
+        <v>4.101837277626665</v>
       </c>
       <c r="R15">
-        <v>20.070376675671</v>
+        <v>36.91653549863999</v>
       </c>
       <c r="S15">
-        <v>0.0440038047749201</v>
+        <v>0.1317852667628595</v>
       </c>
       <c r="T15">
-        <v>0.04400380477492009</v>
+        <v>0.1317852667628595</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H16">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I16">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J16">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N16">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q16">
-        <v>1.067016209772667</v>
+        <v>2.195754693804444</v>
       </c>
       <c r="R16">
-        <v>9.603145887954001</v>
+        <v>19.76179224424</v>
       </c>
       <c r="S16">
-        <v>0.02105465999503853</v>
+        <v>0.07054597695700125</v>
       </c>
       <c r="T16">
-        <v>0.02105465999503853</v>
+        <v>0.07054597695700127</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H17">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I17">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J17">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N17">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O17">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P17">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q17">
-        <v>0.134556054995</v>
+        <v>0.5348290149333332</v>
       </c>
       <c r="R17">
-        <v>1.211004494955</v>
+        <v>4.8134611344</v>
       </c>
       <c r="S17">
-        <v>0.002655097422369079</v>
+        <v>0.01718317418147023</v>
       </c>
       <c r="T17">
-        <v>0.002655097422369078</v>
+        <v>0.01718317418147023</v>
       </c>
     </row>
   </sheetData>
